--- a/data/Subset 1/Video Mosaic Grade 6 2 variables 9.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 2 variables 9.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -542,7 +542,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -703,7 +703,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -749,7 +749,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -772,7 +772,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -795,7 +795,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -841,7 +841,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -864,7 +864,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -887,7 +887,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -933,7 +933,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1027,7 +1027,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1050,7 +1050,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1097,7 +1097,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1120,7 +1120,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1143,7 +1143,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1166,7 +1166,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1189,7 +1189,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1212,7 +1212,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1235,7 +1235,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1258,7 +1258,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1304,7 +1304,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1327,7 +1327,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1350,7 +1350,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1466,7 +1466,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1512,7 +1512,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1673,7 +1673,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1742,7 +1742,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1765,7 +1765,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1789,7 +1789,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1813,7 +1813,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1836,7 +1836,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1883,7 +1883,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
